--- a/out_Rank.xlsx
+++ b/out_Rank.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17:35:22.834</t>
+          <t>17:35:32.715</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -464,30 +464,73 @@
           <t>437</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-100</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65535</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>399</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-101</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65535</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>436</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2560</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
